--- a/beheer/Template_NLCS_Lijnweights.xlsx
+++ b/beheer/Template_NLCS_Lijnweights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F7741D-AED6-4554-A5BD-398374C7B12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17693F2B-C8DD-4479-8D73-8E3E301E3FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11124" yWindow="1260" windowWidth="10584" windowHeight="7944" xr2:uid="{D5E876F4-FCF9-40E5-9016-E89CF8C344EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5E876F4-FCF9-40E5-9016-E89CF8C344EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lijnweights" sheetId="1" r:id="rId1"/>
@@ -38,48 +38,35 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={7C201CF0-B7A4-4102-A4BA-C5CFBAC7D4A8}</author>
     <author>tc={A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}</author>
     <author>tc={B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}</author>
     <author>tc={435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}</author>
     <author>tc={9E8E4C94-2CDE-46F2-8257-3EA11205508A}</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{7C201CF0-B7A4-4102-A4BA-C5CFBAC7D4A8}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Verplicht: JA
+Inputtype: string  (tekst)
+Doel: De naam van de lijnweight aangeven.
+Voorbeeld:  0,13</t>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de lijnweight aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
-</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: JA
-Inputtype: string  (tekst)
-Doel: De naam van de lijnweight aangeven.
-Voorbeeld:  0,13</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  X
 </t>
       </text>
     </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}">
+    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -89,7 +76,7 @@
 Voorbeeld:  0,13</t>
       </text>
     </comment>
-    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{9E8E4C94-2CDE-46F2-8257-3EA11205508A}">
+    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{9E8E4C94-2CDE-46F2-8257-3EA11205508A}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -104,10 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>omschrijving</t>
   </si>
@@ -519,31 +503,24 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-08-01T06:10:07.44" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{7C201CF0-B7A4-4102-A4BA-C5CFBAC7D4A8}">
-    <text xml:space="preserve">Verplicht: NEE
-Inputtype: integer (hele getallen)
-Doel: Een code om de lijnweight aan te duiden. Vanwege URIs niet langer verplicht
-Voorbeeld:  1
-</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-08-01T06:11:01.37" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}">
+  <threadedComment ref="A1" dT="2024-08-01T06:11:01.37" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}">
     <text>Verplicht: JA
 Inputtype: string  (tekst)
 Doel: De naam van de lijnweight aangeven.
 Voorbeeld:  0,13</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2024-08-01T06:16:07.72" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}">
+  <threadedComment ref="B1" dT="2024-08-01T06:16:07.72" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}">
     <text xml:space="preserve">Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  X
 </text>
   </threadedComment>
-  <threadedComment ref="D1" dT="2024-08-01T06:16:28.23" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}">
+  <threadedComment ref="C1" dT="2024-08-01T06:16:28.23" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}">
     <text>Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  0,13</text>
   </threadedComment>
-  <threadedComment ref="E1" dT="2024-08-01T06:16:39.28" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{9E8E4C94-2CDE-46F2-8257-3EA11205508A}">
+  <threadedComment ref="D1" dT="2024-08-01T06:16:39.28" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{9E8E4C94-2CDE-46F2-8257-3EA11205508A}">
     <text>Verplicht: NEE
 Inputtype: string  (tekst)
 Voorbeeld:  0,25</text>
@@ -553,22 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B8593-7046-4AAD-BF97-D79A07B2C4FD}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -577,9 +554,6 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/beheer/Template_NLCS_Lijnweights.xlsx
+++ b/beheer/Template_NLCS_Lijnweights.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Projects\digiGO\(EP1340) DigiGO - NLCS uitbreidingen (grootboekrekening 7051)\Deliverables\NLCS\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17693F2B-C8DD-4479-8D73-8E3E301E3FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EA3E98-D9FC-416C-B519-A000B6A9F682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{D5E876F4-FCF9-40E5-9016-E89CF8C344EC}"/>
   </bookViews>
@@ -42,6 +42,7 @@
     <author>tc={B7CB17E9-52CA-4B2B-AA10-FA14819C50C2}</author>
     <author>tc={435ED9D1-73D6-4A9A-9FF3-36DDAF9E7112}</author>
     <author>tc={9E8E4C94-2CDE-46F2-8257-3EA11205508A}</author>
+    <author>tc={32FCA95B-AB6B-4A35-B8C7-524C0CF72D63}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A4081A78-5FD8-4FC6-A56F-E5C51DF5BF16}">
@@ -86,12 +87,23 @@
 Voorbeeld:  0,25</t>
       </text>
     </comment>
+    <comment ref="E1" authorId="4" shapeId="0" xr:uid="{32FCA95B-AB6B-4A35-B8C7-524C0CF72D63}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Verplicht: NEE
+Inputtype: integer (getal)
+Voorbeeld:  1
+</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>omschrijving</t>
   </si>
@@ -104,12 +116,15 @@
   <si>
     <t>dikker</t>
   </si>
+  <si>
+    <t>microstationnummer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +139,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -525,23 +546,30 @@
 Inputtype: string  (tekst)
 Voorbeeld:  0,25</text>
   </threadedComment>
+  <threadedComment ref="E1" dT="2024-10-15T06:44:58.53" personId="{9A6E3314-48E3-4926-B00D-EBA4A8565F32}" id="{32FCA95B-AB6B-4A35-B8C7-524C0CF72D63}">
+    <text xml:space="preserve">Verplicht: NEE
+Inputtype: integer (getal)
+Voorbeeld:  1
+</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD6B8593-7046-4AAD-BF97-D79A07B2C4FD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -554,6 +582,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
